--- a/biology/Zoologie/Hylodes_phyllodes/Hylodes_phyllodes.xlsx
+++ b/biology/Zoologie/Hylodes_phyllodes/Hylodes_phyllodes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hylodes phyllodes est une espèce d'amphibiens de la famille des Hylodidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hylodes phyllodes est une espèce d'amphibiens de la famille des Hylodidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la Serra do Mar dans l'État de São Paulo au Brésil[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la Serra do Mar dans l'État de São Paulo au Brésil.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les spécimens adultes mâles observés lors de la description originale mesurent entre 27,5 mm et 31,4 mm de longueur standard et les spécimens adultes femelles observés lors de la description originale mesurent entre 29,0 mm et 35,5 mm de longueur standard[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les spécimens adultes mâles observés lors de la description originale mesurent entre 27,5 mm et 31,4 mm de longueur standard et les spécimens adultes femelles observés lors de la description originale mesurent entre 29,0 mm et 35,5 mm de longueur standard.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom spécifique charadranaetes vient du grec phyllo, la feuille, et de oides, identique, en référence à la difficulté de discerner la journée cette espèce parmi les feuilles[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom spécifique charadranaetes vient du grec phyllo, la feuille, et de oides, identique, en référence à la difficulté de discerner la journée cette espèce parmi les feuilles.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Heyer &amp; Cocroft 1986 : Descriptions of two new species of Hylodes from the Atlantic forests of Brazil (Amphibia: Leptodactylidae). Proceedings of the Biological Society of Washington, vol. 99, no 1, p. 100-109 (texte intégral).</t>
         </is>
